--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3446706.371164252</v>
+        <v>3544105.022254629</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6663746.095359934</v>
+        <v>6663746.095359933</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095096</v>
+        <v>806345.8827095095</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>297.7758554921091</v>
       </c>
       <c r="G2" t="n">
         <v>14.07113985546249</v>
       </c>
       <c r="H2" t="n">
-        <v>326.8617025836456</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>162.9947207958797</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>72.50477145174341</v>
+        <v>72.5047714517429</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.7045308089147</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2471250950627</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>177.4078091075885</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.6845543210566</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>105.8712504714823</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>66.70865780356722</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.24433418100846</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>159.4432253296168</v>
+        <v>159.4432253296167</v>
       </c>
       <c r="T3" t="n">
-        <v>165.0229805108022</v>
+        <v>197.5086460108761</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8980292624121</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>176.1928224966744</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>138.8367272514146</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>61.17699200972021</v>
+        <v>152.4531265631662</v>
       </c>
       <c r="S4" t="n">
-        <v>214.3888609467086</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>44.85523934689402</v>
       </c>
       <c r="U4" t="n">
-        <v>286.28889559408</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,16 +898,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>339.6503918592879</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>309.1792795960031</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -941,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1041,7 +1043,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773036</v>
       </c>
     </row>
     <row r="7">
@@ -1051,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>15.59157052989599</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>7.411050579298363</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>123.884560043666</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>33.39238059818903</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1187,19 +1189,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,13 +1302,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>126.0887386816666</v>
       </c>
       <c r="H10" t="n">
-        <v>130.0455752073215</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1379,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
@@ -1388,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292604</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.9951719589016</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>74.75769145492404</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1582,16 +1584,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>118.0028010450171</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1613,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1661,7 +1663,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1765,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>41.80374457188184</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,13 +1818,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>177.6168154118672</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
@@ -1898,7 +1900,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2011,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>138.3467445476596</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2059,16 +2061,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>120.6353666620239</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2135,7 +2137,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="21">
@@ -2239,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2254,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>203.4068132192027</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>88.68466274182011</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2482,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>103.1340411809968</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,7 +2529,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>212.7440598599312</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2539,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2713,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -2764,22 +2766,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>24.50207705615916</v>
       </c>
       <c r="V28" t="n">
-        <v>192.1086769853286</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2801,10 +2803,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534535</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
@@ -2846,7 +2848,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2947,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2968,7 +2970,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0.8695610300811244</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>142.9908529334218</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3196,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>101.5265387406548</v>
       </c>
       <c r="G34" t="n">
-        <v>84.69473660442844</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,13 +3237,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3275,16 +3277,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873214</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3363,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247741</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>7.601081015447828</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3481,13 +3483,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>90.30873340437959</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3512,16 +3514,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534535</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>17.25588147840188</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3670,7 +3672,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -3715,7 +3717,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3724,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>69.9776060417651</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3794,10 +3796,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701364</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3837,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,22 +3900,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>92.09843453981388</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>124.6940884171421</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -3958,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3989,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>163.689844124971</v>
+        <v>100.3386460902057</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4192,10 +4194,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1336.275188585121</v>
+        <v>748.0942438094912</v>
       </c>
       <c r="C2" t="n">
-        <v>967.3126716447091</v>
+        <v>748.0942438094912</v>
       </c>
       <c r="D2" t="n">
-        <v>967.3126716447091</v>
+        <v>748.0942438094912</v>
       </c>
       <c r="E2" t="n">
-        <v>967.3126716447091</v>
+        <v>362.305991211247</v>
       </c>
       <c r="F2" t="n">
-        <v>556.3267668551016</v>
+        <v>61.52229879497513</v>
       </c>
       <c r="G2" t="n">
-        <v>542.1134942738263</v>
+        <v>47.30902621369989</v>
       </c>
       <c r="H2" t="n">
-        <v>211.9501583307499</v>
+        <v>47.30902621369989</v>
       </c>
       <c r="I2" t="n">
-        <v>47.30902621369971</v>
+        <v>47.30902621369989</v>
       </c>
       <c r="J2" t="n">
-        <v>138.9642385015907</v>
+        <v>138.9642385015916</v>
       </c>
       <c r="K2" t="n">
-        <v>397.0764468060704</v>
+        <v>397.0764468060722</v>
       </c>
       <c r="L2" t="n">
-        <v>769.5640925927182</v>
+        <v>769.5640925927213</v>
       </c>
       <c r="M2" t="n">
-        <v>1200.634914689012</v>
+        <v>1200.634914689016</v>
       </c>
       <c r="N2" t="n">
-        <v>1624.048915811679</v>
+        <v>1624.048915811685</v>
       </c>
       <c r="O2" t="n">
-        <v>1978.67911263367</v>
+        <v>1978.679112633677</v>
       </c>
       <c r="P2" t="n">
-        <v>2243.673398054129</v>
+        <v>2243.673398054138</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.451310684985</v>
+        <v>2365.451310684994</v>
       </c>
       <c r="R2" t="n">
-        <v>2292.214167804436</v>
+        <v>2292.214167804446</v>
       </c>
       <c r="S2" t="n">
-        <v>2292.214167804436</v>
+        <v>2292.214167804446</v>
       </c>
       <c r="T2" t="n">
-        <v>2292.214167804436</v>
+        <v>2072.310601330795</v>
       </c>
       <c r="U2" t="n">
-        <v>2292.214167804436</v>
+        <v>1818.525626487298</v>
       </c>
       <c r="V2" t="n">
-        <v>2292.214167804436</v>
+        <v>1487.462739143727</v>
       </c>
       <c r="W2" t="n">
-        <v>2292.214167804436</v>
+        <v>1134.694083873613</v>
       </c>
       <c r="X2" t="n">
-        <v>2113.014360625054</v>
+        <v>1134.694083873613</v>
       </c>
       <c r="Y2" t="n">
-        <v>1722.875028649242</v>
+        <v>1134.694083873613</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>676.4684781346485</v>
+        <v>988.8568241913216</v>
       </c>
       <c r="C3" t="n">
-        <v>502.0154488535215</v>
+        <v>814.4037949101946</v>
       </c>
       <c r="D3" t="n">
-        <v>353.0810391922702</v>
+        <v>665.4693852489434</v>
       </c>
       <c r="E3" t="n">
-        <v>193.8435841868147</v>
+        <v>506.2319302434878</v>
       </c>
       <c r="F3" t="n">
-        <v>47.30902621369971</v>
+        <v>359.6973722703727</v>
       </c>
       <c r="G3" t="n">
-        <v>47.30902621369971</v>
+        <v>221.6321658854671</v>
       </c>
       <c r="H3" t="n">
-        <v>47.30902621369971</v>
+        <v>114.6915088435658</v>
       </c>
       <c r="I3" t="n">
-        <v>47.30902621369971</v>
+        <v>47.30902621369989</v>
       </c>
       <c r="J3" t="n">
-        <v>108.2048630683007</v>
+        <v>108.2048630683013</v>
       </c>
       <c r="K3" t="n">
-        <v>130.1591986422581</v>
+        <v>338.9063907138136</v>
       </c>
       <c r="L3" t="n">
-        <v>501.7702691852904</v>
+        <v>501.7702691852948</v>
       </c>
       <c r="M3" t="n">
-        <v>987.4020823874788</v>
+        <v>987.4020823874843</v>
       </c>
       <c r="N3" t="n">
-        <v>1501.594138030026</v>
+        <v>1501.594138030033</v>
       </c>
       <c r="O3" t="n">
-        <v>1905.563735119898</v>
+        <v>1905.563735119906</v>
       </c>
       <c r="P3" t="n">
-        <v>2212.781883695906</v>
+        <v>2212.781883695915</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.451310684985</v>
+        <v>2365.451310684994</v>
       </c>
       <c r="R3" t="n">
-        <v>2305.608548885987</v>
+        <v>2365.451310684994</v>
       </c>
       <c r="S3" t="n">
-        <v>2144.554785926778</v>
+        <v>2204.397547725785</v>
       </c>
       <c r="T3" t="n">
-        <v>1977.864906622937</v>
+        <v>2004.893864886517</v>
       </c>
       <c r="U3" t="n">
-        <v>1749.685079085147</v>
+        <v>2004.893864886517</v>
       </c>
       <c r="V3" t="n">
-        <v>1514.532970853405</v>
+        <v>1826.921316910078</v>
       </c>
       <c r="W3" t="n">
-        <v>1260.295614125203</v>
+        <v>1572.683960181876</v>
       </c>
       <c r="X3" t="n">
-        <v>1052.44411391967</v>
+        <v>1364.832459976343</v>
       </c>
       <c r="Y3" t="n">
-        <v>844.6838151547165</v>
+        <v>1157.07216121139</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47.30902621369971</v>
+        <v>187.5481446494722</v>
       </c>
       <c r="C4" t="n">
-        <v>47.30902621369971</v>
+        <v>187.5481446494722</v>
       </c>
       <c r="D4" t="n">
-        <v>47.30902621369971</v>
+        <v>187.5481446494722</v>
       </c>
       <c r="E4" t="n">
-        <v>47.30902621369971</v>
+        <v>187.5481446494722</v>
       </c>
       <c r="F4" t="n">
-        <v>47.30902621369971</v>
+        <v>187.5481446494722</v>
       </c>
       <c r="G4" t="n">
-        <v>47.30902621369971</v>
+        <v>187.5481446494722</v>
       </c>
       <c r="H4" t="n">
-        <v>47.30902621369971</v>
+        <v>187.5481446494722</v>
       </c>
       <c r="I4" t="n">
-        <v>47.30902621369971</v>
+        <v>47.30902621369989</v>
       </c>
       <c r="J4" t="n">
-        <v>47.30902621369971</v>
+        <v>47.30902621369989</v>
       </c>
       <c r="K4" t="n">
-        <v>88.80529410181575</v>
+        <v>88.80529410181634</v>
       </c>
       <c r="L4" t="n">
-        <v>197.4326649365657</v>
+        <v>197.4326649365669</v>
       </c>
       <c r="M4" t="n">
-        <v>322.3541198950591</v>
+        <v>322.3541198950609</v>
       </c>
       <c r="N4" t="n">
-        <v>449.7398382896733</v>
+        <v>449.7398382896756</v>
       </c>
       <c r="O4" t="n">
-        <v>551.3848716885919</v>
+        <v>551.3848716885948</v>
       </c>
       <c r="P4" t="n">
-        <v>614.8390752546178</v>
+        <v>614.8390752546211</v>
       </c>
       <c r="Q4" t="n">
-        <v>614.8390752546178</v>
+        <v>614.8390752546211</v>
       </c>
       <c r="R4" t="n">
-        <v>553.044133830658</v>
+        <v>460.8460181201098</v>
       </c>
       <c r="S4" t="n">
-        <v>336.4897288339826</v>
+        <v>460.8460181201098</v>
       </c>
       <c r="T4" t="n">
-        <v>336.4897288339826</v>
+        <v>415.5376955474895</v>
       </c>
       <c r="U4" t="n">
-        <v>47.30902621369971</v>
+        <v>415.5376955474895</v>
       </c>
       <c r="V4" t="n">
-        <v>47.30902621369971</v>
+        <v>415.5376955474895</v>
       </c>
       <c r="W4" t="n">
-        <v>47.30902621369971</v>
+        <v>415.5376955474895</v>
       </c>
       <c r="X4" t="n">
-        <v>47.30902621369971</v>
+        <v>187.5481446494722</v>
       </c>
       <c r="Y4" t="n">
-        <v>47.30902621369971</v>
+        <v>187.5481446494722</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2092.422847177208</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="C5" t="n">
-        <v>1749.341643278937</v>
+        <v>1271.815289262514</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
         <v>952.5674858910851</v>
@@ -4562,22 +4564,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2423.485734520778</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2092.422847177208</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>2092.422847177208</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X5" t="n">
-        <v>2092.422847177208</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="Y5" t="n">
-        <v>2092.422847177208</v>
+        <v>1640.777806202926</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4641,34 +4643,34 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4683,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>243.4143268306408</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C7" t="n">
-        <v>243.4143268306408</v>
+        <v>530.7314582348854</v>
       </c>
       <c r="D7" t="n">
-        <v>243.4143268306408</v>
+        <v>530.7314582348854</v>
       </c>
       <c r="E7" t="n">
-        <v>243.4143268306408</v>
+        <v>382.8183646524923</v>
       </c>
       <c r="F7" t="n">
-        <v>235.9284171545818</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545818</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
         <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>471.4038777286581</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>471.4038777286581</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>471.4038777286581</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>471.4038777286581</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>243.4143268306408</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>243.4143268306408</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1916.245359491378</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="C8" t="n">
-        <v>1547.282842550966</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D8" t="n">
-        <v>1547.282842550966</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1161.494589952722</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>750.5086851631143</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>332.5448770613011</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4808,13 +4810,13 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2663.419413646314</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2487.241925960484</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2268.607258932547</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2014.845473570639</v>
       </c>
       <c r="V8" t="n">
-        <v>1916.245359491378</v>
+        <v>2014.845473570639</v>
       </c>
       <c r="W8" t="n">
-        <v>1916.245359491378</v>
+        <v>2014.845473570639</v>
       </c>
       <c r="X8" t="n">
-        <v>1916.245359491378</v>
+        <v>1641.379715309559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1916.245359491378</v>
+        <v>1251.240383333747</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4920,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>332.1920961943572</v>
+        <v>181.3053441250782</v>
       </c>
       <c r="C10" t="n">
-        <v>332.1920961943572</v>
+        <v>181.3053441250782</v>
       </c>
       <c r="D10" t="n">
-        <v>332.1920961943572</v>
+        <v>181.3053441250782</v>
       </c>
       <c r="E10" t="n">
-        <v>332.1920961943572</v>
+        <v>181.3053441250782</v>
       </c>
       <c r="F10" t="n">
-        <v>185.3021486964468</v>
+        <v>181.3053441250782</v>
       </c>
       <c r="G10" t="n">
-        <v>185.3021486964468</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245969</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>513.8405610245969</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>513.8405610245969</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>513.8405610245969</v>
+        <v>409.2948950230955</v>
       </c>
       <c r="X10" t="n">
-        <v>513.8405610245969</v>
+        <v>181.3053441250782</v>
       </c>
       <c r="Y10" t="n">
-        <v>513.8405610245969</v>
+        <v>181.3053441250782</v>
       </c>
     </row>
     <row r="11">
@@ -5027,40 +5029,40 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K11" t="n">
-        <v>1070.832524924162</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L11" t="n">
-        <v>1521.86673817257</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M11" t="n">
-        <v>2055.398642844495</v>
+        <v>2215.249704195856</v>
       </c>
       <c r="N11" t="n">
-        <v>2602.177459903277</v>
+        <v>3195.001976422503</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3697.97444730184</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4411.329534748786</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4659.615896504468</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5109,7 +5111,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468565</v>
@@ -5118,13 +5120,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.56103444839442</v>
+        <v>823.6560115477723</v>
       </c>
       <c r="C13" t="n">
-        <v>95.56103444839442</v>
+        <v>654.7198286198654</v>
       </c>
       <c r="D13" t="n">
-        <v>95.56103444839442</v>
+        <v>654.7198286198654</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5200,7 +5202,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5212,37 +5214,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384228</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="V13" t="n">
-        <v>909.2731541783409</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="W13" t="n">
-        <v>619.8559841413803</v>
+        <v>1163.643339221623</v>
       </c>
       <c r="X13" t="n">
-        <v>391.866433243363</v>
+        <v>1044.448590691302</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.0738540998329</v>
+        <v>823.6560115477723</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
@@ -5273,49 +5275,49 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>786.6724891157187</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1237.706702364128</v>
+        <v>1797.117834600129</v>
       </c>
       <c r="M14" t="n">
-        <v>2216.257005193956</v>
+        <v>2330.649739272054</v>
       </c>
       <c r="N14" t="n">
-        <v>3196.009277420603</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5331,16 +5333,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
         <v>341.4333205763708</v>
@@ -5349,10 +5351,10 @@
         <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
         <v>189.2383039390118</v>
@@ -5361,7 +5363,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5388,7 +5390,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>843.8357807358383</v>
+        <v>410.7144041584436</v>
       </c>
       <c r="C16" t="n">
-        <v>843.8357807358383</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="D16" t="n">
-        <v>801.6097761177758</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="E16" t="n">
-        <v>653.6966825353827</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
@@ -5464,22 +5466,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501056</v>
+        <v>1585.246657273078</v>
       </c>
       <c r="U16" t="n">
-        <v>1542.890966501056</v>
+        <v>1585.246657273078</v>
       </c>
       <c r="V16" t="n">
-        <v>1542.890966501056</v>
+        <v>1330.562169067191</v>
       </c>
       <c r="W16" t="n">
-        <v>1253.473796464095</v>
+        <v>1041.144999030231</v>
       </c>
       <c r="X16" t="n">
-        <v>1025.484245566078</v>
+        <v>813.1554481322135</v>
       </c>
       <c r="Y16" t="n">
-        <v>1025.484245566078</v>
+        <v>592.3628689886833</v>
       </c>
     </row>
     <row r="17">
@@ -5492,13 +5494,13 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
         <v>850.213983755162</v>
@@ -5510,7 +5512,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
         <v>284.4401654074198</v>
@@ -5519,46 +5521,46 @@
         <v>939.1634975427194</v>
       </c>
       <c r="L17" t="n">
-        <v>1586.925993846823</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M17" t="n">
-        <v>2120.457898518747</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N17" t="n">
-        <v>2667.23671557753</v>
+        <v>2883.993034926781</v>
       </c>
       <c r="O17" t="n">
-        <v>3547.201365906984</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P17" t="n">
-        <v>4260.55645335393</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5568,34 +5570,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L18" t="n">
         <v>794.2006632320242</v>
@@ -5610,16 +5612,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839441</v>
+        <v>646.5509214492497</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839441</v>
+        <v>646.5509214492497</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839441</v>
+        <v>646.5509214492497</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839441</v>
+        <v>646.5509214492497</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839441</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5707,16 +5709,16 @@
         <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>909.2731541783409</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="W19" t="n">
-        <v>619.8559841413803</v>
+        <v>874.540472347267</v>
       </c>
       <c r="X19" t="n">
-        <v>498.0020784221642</v>
+        <v>646.5509214492497</v>
       </c>
       <c r="Y19" t="n">
-        <v>277.2094992786341</v>
+        <v>646.5509214492497</v>
       </c>
     </row>
     <row r="20">
@@ -5750,28 +5752,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>416.1091927888621</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>1070.832524924162</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1521.86673817257</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M20" t="n">
-        <v>2055.398642844495</v>
+        <v>2649.230460361821</v>
       </c>
       <c r="N20" t="n">
-        <v>2602.177459903277</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2917.269290763412</v>
+        <v>3232.422660473461</v>
       </c>
       <c r="C22" t="n">
-        <v>2917.269290763412</v>
+        <v>3063.486477545554</v>
       </c>
       <c r="D22" t="n">
-        <v>2917.269290763412</v>
+        <v>3063.486477545554</v>
       </c>
       <c r="E22" t="n">
-        <v>2917.269290763412</v>
+        <v>3063.486477545554</v>
       </c>
       <c r="F22" t="n">
-        <v>2917.269290763412</v>
+        <v>3063.486477545554</v>
       </c>
       <c r="G22" t="n">
-        <v>2917.269290763412</v>
+        <v>3063.486477545554</v>
       </c>
       <c r="H22" t="n">
         <v>2917.269290763412</v>
@@ -5932,28 +5934,28 @@
         <v>4778.051722419721</v>
       </c>
       <c r="R22" t="n">
-        <v>4778.051722419721</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="S22" t="n">
-        <v>4586.365838246547</v>
+        <v>4496.535381004075</v>
       </c>
       <c r="T22" t="n">
-        <v>4380.904410752403</v>
+        <v>4496.535381004075</v>
       </c>
       <c r="U22" t="n">
-        <v>4091.801543878047</v>
+        <v>4406.954913588095</v>
       </c>
       <c r="V22" t="n">
-        <v>3837.11705567216</v>
+        <v>4152.270425382208</v>
       </c>
       <c r="W22" t="n">
-        <v>3547.699885635199</v>
+        <v>3862.853255345248</v>
       </c>
       <c r="X22" t="n">
-        <v>3319.710334737182</v>
+        <v>3634.863704447231</v>
       </c>
       <c r="Y22" t="n">
-        <v>3098.917755593652</v>
+        <v>3414.071125303701</v>
       </c>
     </row>
     <row r="23">
@@ -5981,7 +5983,7 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
@@ -5990,22 +5992,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1803.682313196074</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M23" t="n">
-        <v>2337.214217867999</v>
+        <v>2006.065164440651</v>
       </c>
       <c r="N23" t="n">
-        <v>3196.009277420604</v>
+        <v>2985.817436667298</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q23" t="n">
         <v>4719.034655862919</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>368.6730165490254</v>
+        <v>3646.037028578558</v>
       </c>
       <c r="C25" t="n">
-        <v>199.7368336211185</v>
+        <v>3477.100845650651</v>
       </c>
       <c r="D25" t="n">
-        <v>199.7368336211185</v>
+        <v>3477.100845650651</v>
       </c>
       <c r="E25" t="n">
-        <v>199.7368336211185</v>
+        <v>3329.187752068258</v>
       </c>
       <c r="F25" t="n">
-        <v>199.7368336211185</v>
+        <v>3182.297804570348</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>3014.594967945066</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>3014.594967945066</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>4586.365838246547</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>4371.472848489041</v>
       </c>
       <c r="U25" t="n">
-        <v>1253.788099626699</v>
+        <v>4082.369981614685</v>
       </c>
       <c r="V25" t="n">
-        <v>999.1036114208126</v>
+        <v>3827.685493408798</v>
       </c>
       <c r="W25" t="n">
-        <v>999.1036114208126</v>
+        <v>3827.685493408798</v>
       </c>
       <c r="X25" t="n">
-        <v>771.1140605227953</v>
+        <v>3827.685493408798</v>
       </c>
       <c r="Y25" t="n">
-        <v>550.3214813792652</v>
+        <v>3827.685493408798</v>
       </c>
     </row>
     <row r="26">
@@ -6224,25 +6226,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>351.301436796792</v>
       </c>
       <c r="K26" t="n">
-        <v>785.6651881176194</v>
+        <v>685.1208104866384</v>
       </c>
       <c r="L26" t="n">
-        <v>1236.699401366028</v>
+        <v>1549.639626139993</v>
       </c>
       <c r="M26" t="n">
-        <v>2215.249704195857</v>
+        <v>2528.189928969822</v>
       </c>
       <c r="N26" t="n">
-        <v>3195.001976422504</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O26" t="n">
-        <v>3697.97444730184</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q26" t="n">
         <v>4653.975400188666</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973203</v>
+        <v>3154.542034367489</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161933</v>
+        <v>2980.089005086362</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549422</v>
+        <v>2831.154595425111</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494866</v>
+        <v>2671.917140419655</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763717</v>
+        <v>2525.38258244654</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089899</v>
+        <v>2389.019482279158</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>2298.517587917025</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>2279.510296318563</v>
       </c>
       <c r="J27" t="n">
-        <v>189.238303939012</v>
+        <v>2373.18756580918</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193594</v>
+        <v>2611.451764789527</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320249</v>
+        <v>2978.149925102193</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.476988454341</v>
+        <v>3425.426250324509</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008796</v>
+        <v>3898.949293878963</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>4309.910573297017</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>4620.410164773121</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549553</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>4777.907369012237</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>4648.469482505717</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313404</v>
+        <v>4455.826482183572</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.80937344782</v>
+        <v>4227.758635317988</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216077</v>
+        <v>3992.606527086245</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487875</v>
+        <v>3738.369170358043</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>3530.517670152511</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>3322.757371387557</v>
       </c>
     </row>
     <row r="28">
@@ -6358,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>560.2704579839216</v>
+        <v>730.2297869963112</v>
       </c>
       <c r="C28" t="n">
-        <v>560.2704579839216</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="D28" t="n">
-        <v>410.1538185715858</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E28" t="n">
-        <v>410.1538185715858</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F28" t="n">
         <v>263.2638710736754</v>
@@ -6412,22 +6414,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U28" t="n">
-        <v>1163.957642384228</v>
+        <v>1650.077551905059</v>
       </c>
       <c r="V28" t="n">
-        <v>969.9084737121786</v>
+        <v>1650.077551905059</v>
       </c>
       <c r="W28" t="n">
-        <v>969.9084737121786</v>
+        <v>1360.660381868098</v>
       </c>
       <c r="X28" t="n">
-        <v>741.9189228141613</v>
+        <v>1132.670830970081</v>
       </c>
       <c r="Y28" t="n">
-        <v>741.9189228141613</v>
+        <v>911.8782518265509</v>
       </c>
     </row>
     <row r="29">
@@ -6440,46 +6442,46 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>1770.231306037953</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>2749.9835782646</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3629.948228594054</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q29" t="n">
         <v>4719.034655862919</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.8133219477185</v>
+        <v>1023.336921276364</v>
       </c>
       <c r="C31" t="n">
-        <v>803.8133219477185</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D31" t="n">
-        <v>653.6966825353827</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E31" t="n">
-        <v>653.6966825353827</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F31" t="n">
-        <v>506.8067350374723</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6643,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.012622026227</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="V31" t="n">
-        <v>1542.012622026227</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="W31" t="n">
-        <v>1252.595451989266</v>
+        <v>1432.974937004621</v>
       </c>
       <c r="X31" t="n">
-        <v>1024.605901091249</v>
+        <v>1204.985386106604</v>
       </c>
       <c r="Y31" t="n">
-        <v>803.8133219477185</v>
+        <v>1204.985386106604</v>
       </c>
     </row>
     <row r="32">
@@ -6692,7 +6694,7 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6704,22 +6706,22 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2216.257005193957</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N32" t="n">
-        <v>3196.009277420604</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6753,64 +6755,64 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6819,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>181.1112734427666</v>
+        <v>680.9693001177193</v>
       </c>
       <c r="C34" t="n">
-        <v>181.1112734427666</v>
+        <v>512.0331171898124</v>
       </c>
       <c r="D34" t="n">
-        <v>181.1112734427666</v>
+        <v>512.0331171898124</v>
       </c>
       <c r="E34" t="n">
-        <v>181.1112734427666</v>
+        <v>512.0331171898124</v>
       </c>
       <c r="F34" t="n">
-        <v>181.1112734427666</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H34" t="n">
         <v>95.56103444839442</v>
@@ -6883,25 +6885,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1644.746393431758</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1355.643526557401</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V34" t="n">
-        <v>1100.959038351514</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="W34" t="n">
-        <v>811.5418683145538</v>
+        <v>908.9588510157366</v>
       </c>
       <c r="X34" t="n">
-        <v>583.5523174165364</v>
+        <v>680.9693001177193</v>
       </c>
       <c r="Y34" t="n">
-        <v>362.7597382730063</v>
+        <v>680.9693001177193</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749766</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551636</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001601</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074199</v>
       </c>
       <c r="K35" t="n">
-        <v>888.4135721382786</v>
+        <v>818.2062848686794</v>
       </c>
       <c r="L35" t="n">
-        <v>1339.447785386687</v>
+        <v>1682.725100522034</v>
       </c>
       <c r="M35" t="n">
-        <v>2317.998088216516</v>
+        <v>2216.257005193959</v>
       </c>
       <c r="N35" t="n">
-        <v>3297.750360443163</v>
+        <v>3196.009277420605</v>
       </c>
       <c r="O35" t="n">
-        <v>3800.7228313225</v>
+        <v>4075.97392775006</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107239</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862921</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419723</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991191</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730111</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="36">
@@ -7011,16 +7013,16 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>263.2638710736754</v>
+        <v>562.5269503710302</v>
       </c>
       <c r="C37" t="n">
-        <v>263.2638710736754</v>
+        <v>393.5907674431234</v>
       </c>
       <c r="D37" t="n">
-        <v>263.2638710736754</v>
+        <v>243.4741280307876</v>
       </c>
       <c r="E37" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="F37" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839447</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7117,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>1948.66560649314</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T37" t="n">
-        <v>1726.898991062666</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U37" t="n">
-        <v>1437.79612418831</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V37" t="n">
-        <v>1183.111635982423</v>
+        <v>1072.736699551521</v>
       </c>
       <c r="W37" t="n">
-        <v>893.6944659454626</v>
+        <v>783.3195295145604</v>
       </c>
       <c r="X37" t="n">
-        <v>665.7049150474453</v>
+        <v>783.3195295145604</v>
       </c>
       <c r="Y37" t="n">
-        <v>444.9123359039152</v>
+        <v>562.5269503710302</v>
       </c>
     </row>
     <row r="38">
@@ -7154,49 +7156,49 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L38" t="n">
-        <v>1237.706702364128</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M38" t="n">
-        <v>2216.257005193957</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N38" t="n">
-        <v>3196.009277420604</v>
+        <v>2877.428556330837</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3757.393206660292</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107238</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S38" t="n">
         <v>4667.761053946816</v>
@@ -7248,16 +7250,16 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J39" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>243.4741280307875</v>
+        <v>656.6259356382594</v>
       </c>
       <c r="C40" t="n">
-        <v>243.4741280307875</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="D40" t="n">
-        <v>243.4741280307875</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839442</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7354,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T40" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U40" t="n">
-        <v>1253.788099626699</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V40" t="n">
-        <v>999.1036114208126</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="W40" t="n">
-        <v>709.6864413838521</v>
+        <v>908.9588510157366</v>
       </c>
       <c r="X40" t="n">
-        <v>481.6968904858347</v>
+        <v>838.2744004684992</v>
       </c>
       <c r="Y40" t="n">
-        <v>260.9043113423046</v>
+        <v>838.2744004684992</v>
       </c>
     </row>
     <row r="41">
@@ -7388,16 +7390,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
         <v>435.1415336001585</v>
@@ -7406,7 +7408,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J41" t="n">
         <v>451.8458144277729</v>
@@ -7415,40 +7417,40 @@
         <v>785.6651881176194</v>
       </c>
       <c r="L41" t="n">
-        <v>1236.699401366028</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M41" t="n">
-        <v>2215.249704195857</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N41" t="n">
-        <v>3195.001976422504</v>
+        <v>3163.468180669545</v>
       </c>
       <c r="O41" t="n">
-        <v>3697.97444730184</v>
+        <v>4043.432830999</v>
       </c>
       <c r="P41" t="n">
-        <v>4260.556453353931</v>
+        <v>4438.207197356178</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V41" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7464,13 +7466,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
         <v>487.9678785494859</v>
@@ -7479,13 +7481,13 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J42" t="n">
         <v>189.2383039390118</v>
@@ -7494,7 +7496,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>481.6968904858347</v>
+        <v>3510.188831349828</v>
       </c>
       <c r="C43" t="n">
-        <v>388.668168728447</v>
+        <v>3341.252648421922</v>
       </c>
       <c r="D43" t="n">
-        <v>388.668168728447</v>
+        <v>3191.136009009586</v>
       </c>
       <c r="E43" t="n">
-        <v>388.668168728447</v>
+        <v>3043.222915427193</v>
       </c>
       <c r="F43" t="n">
-        <v>241.7782212305366</v>
+        <v>3043.222915427193</v>
       </c>
       <c r="G43" t="n">
-        <v>241.7782212305366</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="J43" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210349</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159225</v>
       </c>
       <c r="L43" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.938904607721</v>
       </c>
       <c r="M43" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.09595020727</v>
       </c>
       <c r="N43" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913135</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833548</v>
       </c>
       <c r="P43" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267207</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104704</v>
+        <v>4688.22126517725</v>
       </c>
       <c r="S43" t="n">
-        <v>1764.65758193153</v>
+        <v>4496.535381004076</v>
       </c>
       <c r="T43" t="n">
-        <v>1542.890966501056</v>
+        <v>4274.768765573602</v>
       </c>
       <c r="U43" t="n">
-        <v>1253.788099626699</v>
+        <v>3985.665898699245</v>
       </c>
       <c r="V43" t="n">
-        <v>999.1036114208126</v>
+        <v>3730.981410493358</v>
       </c>
       <c r="W43" t="n">
-        <v>709.6864413838521</v>
+        <v>3730.981410493358</v>
       </c>
       <c r="X43" t="n">
-        <v>481.6968904858347</v>
+        <v>3730.981410493358</v>
       </c>
       <c r="Y43" t="n">
-        <v>481.6968904858347</v>
+        <v>3510.188831349828</v>
       </c>
     </row>
     <row r="44">
@@ -7628,55 +7630,55 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551634</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074199</v>
       </c>
       <c r="K44" t="n">
-        <v>785.6651881176194</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L44" t="n">
-        <v>1236.699401366028</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M44" t="n">
-        <v>2215.249704195857</v>
+        <v>2782.232616025903</v>
       </c>
       <c r="N44" t="n">
-        <v>3195.001976422504</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O44" t="n">
-        <v>3697.97444730184</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107238</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U44" t="n">
         <v>4208.252829604875</v>
@@ -7722,16 +7724,16 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J45" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.56103444839442</v>
+        <v>805.5092287479694</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839442</v>
+        <v>805.5092287479694</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839442</v>
+        <v>655.3925893356336</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839442</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839442</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7828,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1764.65758193153</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T46" t="n">
-        <v>1542.890966501056</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U46" t="n">
-        <v>1253.788099626699</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V46" t="n">
-        <v>999.1036114208126</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="W46" t="n">
-        <v>709.6864413838521</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="X46" t="n">
-        <v>481.6968904858347</v>
+        <v>1127.653975659384</v>
       </c>
       <c r="Y46" t="n">
-        <v>260.9043113423046</v>
+        <v>906.8613965158539</v>
       </c>
     </row>
   </sheetData>
@@ -8058,10 +8060,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>53.60948744535212</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>159.9845957362348</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8292,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050812</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8544,10 +8546,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P9" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8690,28 +8692,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>288.0478149561032</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>60.01894884691991</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>170.1140909277296</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>241.9338129178262</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9167,7 +9169,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>198.7154374299943</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9176,13 +9178,13 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>374.169394802195</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9398,16 +9400,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>132.9990175570123</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>146.0713065388582</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9416,13 +9418,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9638,16 +9640,16 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>407.3126337606582</v>
       </c>
       <c r="N23" t="n">
-        <v>315.1679217109319</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9656,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9872,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>67.53663776704252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9890,10 +9892,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>103.7862464855144</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10109,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>238.2160185885842</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10352,25 +10354,25 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>39.4832155777267</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>103.7862464855144</v>
+        <v>201.9664098701141</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,25 +10822,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>148.4180109385417</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11063,22 +11065,22 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>169.5026663584974</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>32.86979469804012</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>246.4545694808459</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>103.7862464855144</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>105.0742887270133</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,16 +23472,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>107.70685434402</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>106.8117284463305</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,13 +23706,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>41.93213386430205</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23899,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>7.074303475271648</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24142,7 +24144,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>16.14213605696654</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>197.5271754637928</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24370,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>62.89176707803139</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>6.804889416238012</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24601,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24652,22 +24654,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>261.7097611494537</v>
       </c>
       <c r="V28" t="n">
-        <v>60.02896633849943</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>285.3422771755318</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>143.5321454031692</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25084,13 +25086,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>43.89450928227645</v>
       </c>
       <c r="G34" t="n">
-        <v>81.33107165459978</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25123,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>182.1679443159941</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>161.8289099194484</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>162.5760987035354</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25558,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25567,7 +25569,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>155.732049347272</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25786,22 +25788,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>75.14838655881395</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>41.33171984188611</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25846,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.14213605696625</v>
+        <v>79.49333409173158</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>682953.8737867379</v>
+        <v>682953.873786738</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>682953.873786738</v>
+        <v>682953.8737867379</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>682953.8737867379</v>
+        <v>682953.873786738</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>682953.873786738</v>
+        <v>682953.8737867379</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>682953.873786738</v>
+        <v>682953.8737867379</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>682953.8737867379</v>
+        <v>682953.873786738</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>682953.8737867379</v>
+        <v>682953.8737867381</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.637124461</v>
+        <v>759463.6371244617</v>
       </c>
       <c r="C2" t="n">
+        <v>759463.6371244625</v>
+      </c>
+      <c r="D2" t="n">
         <v>759463.6371244622</v>
       </c>
-      <c r="D2" t="n">
-        <v>759463.6371244623</v>
-      </c>
       <c r="E2" t="n">
-        <v>734601.3057409191</v>
+        <v>734601.3057409194</v>
       </c>
       <c r="F2" t="n">
-        <v>734601.3057409191</v>
+        <v>734601.305740919</v>
       </c>
       <c r="G2" t="n">
         <v>734601.3057409192</v>
       </c>
       <c r="H2" t="n">
-        <v>734601.3057409191</v>
+        <v>734601.3057409194</v>
       </c>
       <c r="I2" t="n">
-        <v>734601.3057409193</v>
+        <v>734601.3057409188</v>
       </c>
       <c r="J2" t="n">
-        <v>734601.3057409191</v>
+        <v>734601.305740919</v>
       </c>
       <c r="K2" t="n">
-        <v>734601.305740919</v>
+        <v>734601.3057409192</v>
       </c>
       <c r="L2" t="n">
         <v>734601.3057409192</v>
       </c>
       <c r="M2" t="n">
+        <v>734601.3057409191</v>
+      </c>
+      <c r="N2" t="n">
+        <v>734601.3057409194</v>
+      </c>
+      <c r="O2" t="n">
+        <v>734601.3057409193</v>
+      </c>
+      <c r="P2" t="n">
         <v>734601.3057409192</v>
-      </c>
-      <c r="N2" t="n">
-        <v>734601.3057409191</v>
-      </c>
-      <c r="O2" t="n">
-        <v>734601.3057409191</v>
-      </c>
-      <c r="P2" t="n">
-        <v>734601.3057409188</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493391.6844106464</v>
+        <v>493391.6844106492</v>
       </c>
       <c r="C3" t="n">
-        <v>91792.63957447061</v>
+        <v>91792.63957446792</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.850638409455617e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154726.5356832156</v>
+        <v>154726.5356832161</v>
       </c>
       <c r="K3" t="n">
-        <v>21342.09858220112</v>
+        <v>21342.09858220054</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389449</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235704.9591760461</v>
+        <v>235704.9591760454</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
@@ -26424,13 +26426,13 @@
         <v>209922.4154630333</v>
       </c>
       <c r="E4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289572</v>
       </c>
       <c r="F4" t="n">
-        <v>28561.83935289574</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="G4" t="n">
-        <v>28561.83935289574</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="H4" t="n">
         <v>28561.83935289575</v>
@@ -26442,22 +26444,22 @@
         <v>28561.83935289575</v>
       </c>
       <c r="K4" t="n">
-        <v>28561.83935289576</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="L4" t="n">
-        <v>28561.83935289576</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="M4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289571</v>
       </c>
       <c r="N4" t="n">
-        <v>28561.83935289576</v>
+        <v>28561.8393528957</v>
       </c>
       <c r="O4" t="n">
-        <v>28561.83935289576</v>
+        <v>28561.83935289571</v>
       </c>
       <c r="P4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289577</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76261.10613140115</v>
+        <v>76261.10613140132</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,13 +26478,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="F5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="F5" t="n">
-        <v>96383.51825371364</v>
-      </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371366</v>
@@ -26494,22 +26496,22 @@
         <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-45894.11259363272</v>
+        <v>-45894.11259363417</v>
       </c>
       <c r="C6" t="n">
-        <v>374889.5040235488</v>
+        <v>374889.5040235518</v>
       </c>
       <c r="D6" t="n">
         <v>466682.1435980195</v>
       </c>
       <c r="E6" t="n">
-        <v>-117721.4658590971</v>
+        <v>-117721.4658590966</v>
       </c>
       <c r="F6" t="n">
-        <v>609655.9481343097</v>
+        <v>609655.9481343096</v>
       </c>
       <c r="G6" t="n">
         <v>609655.9481343098</v>
       </c>
       <c r="H6" t="n">
-        <v>609655.9481343097</v>
+        <v>609655.9481343101</v>
       </c>
       <c r="I6" t="n">
-        <v>609655.94813431</v>
+        <v>609655.9481343095</v>
       </c>
       <c r="J6" t="n">
-        <v>454929.4124510941</v>
+        <v>454929.4124510935</v>
       </c>
       <c r="K6" t="n">
-        <v>588313.8495521084</v>
+        <v>588313.8495521093</v>
       </c>
       <c r="L6" t="n">
         <v>609655.9481343098</v>
       </c>
       <c r="M6" t="n">
-        <v>480013.633295365</v>
+        <v>480013.6332953647</v>
       </c>
       <c r="N6" t="n">
-        <v>609655.9481343097</v>
+        <v>609655.9481343101</v>
       </c>
       <c r="O6" t="n">
-        <v>609655.9481343097</v>
+        <v>609655.9481343098</v>
       </c>
       <c r="P6" t="n">
-        <v>609655.9481343095</v>
+        <v>609655.9481343098</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435485</v>
+        <v>306.3599178435506</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26787,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712464</v>
+        <v>591.3628276712486</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26820,7 +26822,7 @@
         <v>1194.51293060493</v>
       </c>
       <c r="M4" t="n">
-        <v>1194.51293060493</v>
+        <v>1194.512930604931</v>
       </c>
       <c r="N4" t="n">
         <v>1194.51293060493</v>
@@ -26917,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.063298011819522e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435485</v>
+        <v>306.3599178435506</v>
       </c>
       <c r="C3" t="n">
-        <v>71.38374637353814</v>
+        <v>71.38374637353598</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762115</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712464</v>
+        <v>591.3628276712486</v>
       </c>
       <c r="C4" t="n">
-        <v>82.92444508330921</v>
+        <v>82.92444508330694</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712464</v>
+        <v>591.3628276712486</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330921</v>
+        <v>82.92444508330694</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503751</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.063298011819522e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712464</v>
+        <v>591.3628276712486</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330921</v>
+        <v>82.92444508330694</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27379,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>109.1001902496023</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>326.8617025836455</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>162.9947207958793</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>180.9550379164569</v>
+        <v>180.9550379164567</v>
       </c>
       <c r="T2" t="n">
-        <v>217.7045308089147</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2471250950627</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>192.3232915708805</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27470,13 +27472,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.6845543210566</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>105.8712504714824</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>66.70865780356738</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,19 +27505,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.24433418100819</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>32.48566550007396</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8980292624121</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>56.60776465275086</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27555,10 +27557,10 @@
         <v>157.3153692344725</v>
       </c>
       <c r="I4" t="n">
-        <v>138.8367272514147</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>54.30080173848791</v>
+        <v>54.30080173848765</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27581,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.90169565731856</v>
+        <v>39.90169565731825</v>
       </c>
       <c r="R4" t="n">
-        <v>91.27613455344616</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>214.3888609467085</v>
       </c>
       <c r="T4" t="n">
-        <v>225.5851113727656</v>
+        <v>180.7298720258716</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.28889559408</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,16 +27618,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>25.62249991171967</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>45.50376202467982</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27771,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>151.6552505687318</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>138.0099974436329</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27816,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>200.0382127206911</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>21.0860219766227</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27907,19 +27909,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,13 +28022,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>41.22106357738431</v>
       </c>
       <c r="H10" t="n">
-        <v>26.1253136344736</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923383</v>
@@ -28053,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28071,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.231597659672556</v>
+        <v>1.231597659672564</v>
       </c>
       <c r="H2" t="n">
-        <v>12.61309953212157</v>
+        <v>12.61309953212165</v>
       </c>
       <c r="I2" t="n">
-        <v>47.48116877452626</v>
+        <v>47.48116877452658</v>
       </c>
       <c r="J2" t="n">
-        <v>104.5303118676337</v>
+        <v>104.5303118676344</v>
       </c>
       <c r="K2" t="n">
-        <v>156.663840801573</v>
+        <v>156.6638408015741</v>
       </c>
       <c r="L2" t="n">
-        <v>194.3553476787771</v>
+        <v>194.3553476787783</v>
       </c>
       <c r="M2" t="n">
-        <v>216.2577725589789</v>
+        <v>216.2577725589803</v>
       </c>
       <c r="N2" t="n">
-        <v>219.7570494095235</v>
+        <v>219.757049409525</v>
       </c>
       <c r="O2" t="n">
-        <v>207.5103501811545</v>
+        <v>207.5103501811559</v>
       </c>
       <c r="P2" t="n">
-        <v>177.1052829579883</v>
+        <v>177.1052829579895</v>
       </c>
       <c r="Q2" t="n">
-        <v>132.9986917709648</v>
+        <v>132.9986917709657</v>
       </c>
       <c r="R2" t="n">
-        <v>77.36434648940627</v>
+        <v>77.36434648940678</v>
       </c>
       <c r="S2" t="n">
-        <v>28.0650316697884</v>
+        <v>28.06503166978858</v>
       </c>
       <c r="T2" t="n">
-        <v>5.391318755216616</v>
+        <v>5.391318755216653</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09852781277380446</v>
+        <v>0.09852781277380512</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6589628421540479</v>
+        <v>0.6589628421540522</v>
       </c>
       <c r="H3" t="n">
-        <v>6.364193765014095</v>
+        <v>6.364193765014137</v>
       </c>
       <c r="I3" t="n">
-        <v>22.6879750478477</v>
+        <v>22.68797504784785</v>
       </c>
       <c r="J3" t="n">
-        <v>62.25753764403661</v>
+        <v>62.25753764403702</v>
       </c>
       <c r="K3" t="n">
-        <v>106.4080480683578</v>
+        <v>106.4080480683585</v>
       </c>
       <c r="L3" t="n">
-        <v>143.0787521966497</v>
+        <v>143.0787521966507</v>
       </c>
       <c r="M3" t="n">
-        <v>166.9661552247339</v>
+        <v>166.966155224735</v>
       </c>
       <c r="N3" t="n">
-        <v>171.385252530232</v>
+        <v>171.3852525302331</v>
       </c>
       <c r="O3" t="n">
-        <v>156.7840232382922</v>
+        <v>156.7840232382933</v>
       </c>
       <c r="P3" t="n">
-        <v>125.8330009723813</v>
+        <v>125.8330009723821</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.11602876338338</v>
+        <v>84.11602876338394</v>
       </c>
       <c r="R3" t="n">
-        <v>40.91349997163467</v>
+        <v>40.91349997163494</v>
       </c>
       <c r="S3" t="n">
-        <v>12.23994577422101</v>
+        <v>12.23994577422109</v>
       </c>
       <c r="T3" t="n">
-        <v>2.656082683945481</v>
+        <v>2.656082683945499</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04335281856276632</v>
+        <v>0.04335281856276661</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5524523108654154</v>
+        <v>0.552452310865419</v>
       </c>
       <c r="H4" t="n">
-        <v>4.91180327296706</v>
+        <v>4.911803272967092</v>
       </c>
       <c r="I4" t="n">
-        <v>16.61374767584359</v>
+        <v>16.6137476758437</v>
       </c>
       <c r="J4" t="n">
-        <v>39.05837837818486</v>
+        <v>39.05837837818513</v>
       </c>
       <c r="K4" t="n">
-        <v>64.18491393509098</v>
+        <v>64.1849139350914</v>
       </c>
       <c r="L4" t="n">
-        <v>82.13459174448185</v>
+        <v>82.13459174448241</v>
       </c>
       <c r="M4" t="n">
-        <v>86.59941087502142</v>
+        <v>86.59941087502199</v>
       </c>
       <c r="N4" t="n">
-        <v>84.54027044361403</v>
+        <v>84.54027044361459</v>
       </c>
       <c r="O4" t="n">
-        <v>78.08662299395891</v>
+        <v>78.08662299395944</v>
       </c>
       <c r="P4" t="n">
-        <v>66.81659585230439</v>
+        <v>66.81659585230483</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.26034759437583</v>
+        <v>46.26034759437614</v>
       </c>
       <c r="R4" t="n">
-        <v>24.84026481400312</v>
+        <v>24.84026481400329</v>
       </c>
       <c r="S4" t="n">
-        <v>9.627737090263643</v>
+        <v>9.627737090263709</v>
       </c>
       <c r="T4" t="n">
-        <v>2.360478055515865</v>
+        <v>2.360478055515881</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03013376241084087</v>
+        <v>0.03013376241084107</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31750,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32804,7 +32806,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
@@ -33041,7 +33043,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002938</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
@@ -33971,7 +33973,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -34214,7 +34216,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M42" t="n">
         <v>593.9283018233475</v>
@@ -34445,7 +34447,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.58102251302118</v>
+        <v>92.58102251302188</v>
       </c>
       <c r="K2" t="n">
-        <v>260.7194023277572</v>
+        <v>260.7194023277583</v>
       </c>
       <c r="L2" t="n">
-        <v>376.2501472592403</v>
+        <v>376.2501472592415</v>
       </c>
       <c r="M2" t="n">
-        <v>435.4250728245386</v>
+        <v>435.4250728245401</v>
       </c>
       <c r="N2" t="n">
-        <v>427.6909102249168</v>
+        <v>427.6909102249182</v>
       </c>
       <c r="O2" t="n">
-        <v>358.2123200222131</v>
+        <v>358.2123200222146</v>
       </c>
       <c r="P2" t="n">
-        <v>267.6709953742014</v>
+        <v>267.6709953742026</v>
       </c>
       <c r="Q2" t="n">
-        <v>123.00799255642</v>
+        <v>123.0079925564209</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>61.51094631777875</v>
+        <v>61.51094631777917</v>
       </c>
       <c r="K3" t="n">
-        <v>22.17609653935093</v>
+        <v>233.0318461065781</v>
       </c>
       <c r="L3" t="n">
-        <v>375.3647177202347</v>
+        <v>164.5089681530113</v>
       </c>
       <c r="M3" t="n">
-        <v>490.5371850527155</v>
+        <v>490.5371850527166</v>
       </c>
       <c r="N3" t="n">
-        <v>519.3859147904521</v>
+        <v>519.3859147904533</v>
       </c>
       <c r="O3" t="n">
-        <v>408.0500980705773</v>
+        <v>408.0500980705784</v>
       </c>
       <c r="P3" t="n">
-        <v>310.3213621979882</v>
+        <v>310.3213621979891</v>
       </c>
       <c r="Q3" t="n">
-        <v>154.211542413211</v>
+        <v>154.2115424132115</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.91542210920812</v>
+        <v>41.91542210920855</v>
       </c>
       <c r="L4" t="n">
-        <v>109.724617004798</v>
+        <v>109.7246170047985</v>
       </c>
       <c r="M4" t="n">
-        <v>126.183287836862</v>
+        <v>126.1832878368626</v>
       </c>
       <c r="N4" t="n">
-        <v>128.6724428228426</v>
+        <v>128.6724428228432</v>
       </c>
       <c r="O4" t="n">
-        <v>102.6717509079986</v>
+        <v>102.6717509079991</v>
       </c>
       <c r="P4" t="n">
-        <v>64.09515511719788</v>
+        <v>64.09515511719832</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730077</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,10 +35266,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P9" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35410,28 +35412,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>625.2391015115037</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O11" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>119.6321473891446</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>507.3053774831301</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>697.5239273101583</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
         <v>250.7943048037195</v>
@@ -35887,7 +35889,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>654.3055518223265</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
@@ -35896,13 +35898,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>882.2223956904141</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
         <v>59.61319854222478</v>
@@ -36118,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>323.7860185257249</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>684.9924223690849</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
@@ -36136,13 +36138,13 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36358,16 +36360,16 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>946.2337495908849</v>
       </c>
       <c r="N23" t="n">
-        <v>867.4697571238434</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
         <v>888.8531821509645</v>
@@ -36376,7 +36378,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222478</v>
@@ -36452,7 +36454,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36592,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>258.3236387357551</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
         <v>988.4346493230593</v>
@@ -36610,10 +36612,10 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>502.5482327048862</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36689,7 +36691,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859635</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36829,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>636.978004807956</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222478</v>
@@ -37072,25 +37074,25 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>591.7850509906382</v>
       </c>
       <c r="O32" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>440.9775330409149</v>
+        <v>539.1576964255146</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37540,25 +37542,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>700.7198463514532</v>
       </c>
       <c r="O38" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
         <v>250.7943048037195</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597715</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37783,22 +37785,22 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>568.2646525778692</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>283.6640995017596</v>
       </c>
       <c r="R41" t="n">
         <v>59.61319854222478</v>
@@ -37862,7 +37864,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M42" t="n">
         <v>451.7942679013292</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>798.7564048937573</v>
       </c>
       <c r="O44" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>502.5482327048862</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597715</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3538364.907546412</v>
+        <v>3541770.398670861</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6663746.095359936</v>
+        <v>6663746.095359938</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.88270951</v>
+        <v>806345.8827095097</v>
       </c>
     </row>
     <row r="9">
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>292.708966549381</v>
       </c>
       <c r="G2" t="n">
-        <v>299.9040606631281</v>
+        <v>414.0711398554625</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>72.50477145174318</v>
+        <v>72.50477145174295</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>27.73501337430556</v>
+        <v>136.6845543210566</v>
       </c>
       <c r="H3" t="n">
-        <v>105.8712504714824</v>
+        <v>105.8712504714823</v>
       </c>
       <c r="I3" t="n">
-        <v>66.70865780356731</v>
+        <v>66.70865780356723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.24433418100834</v>
+        <v>59.24433418100822</v>
       </c>
       <c r="S3" t="n">
-        <v>159.4432253296168</v>
+        <v>50.49368438287006</v>
       </c>
       <c r="T3" t="n">
         <v>197.5086460108761</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>117.5604398093797</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>117.5604398093783</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>263.2453680943552</v>
+        <v>306.7837667286674</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -952,13 +952,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U6" t="n">
         <v>225.8879277888686</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586846</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>25.31590541686235</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>382.9162189223172</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>186.250717003031</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1296,10 +1296,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>72.65793777463476</v>
       </c>
       <c r="Y10" t="n">
-        <v>25.3159054168623</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.921725653453</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>84.69473660442779</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>14.20188851094898</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1767,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>10.79706719888444</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>127.3165365479907</v>
       </c>
     </row>
     <row r="17">
@@ -1849,13 +1849,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
@@ -2140,7 +2140,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492316</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>173.626889274475</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>37.38100496017394</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>84.69473660442779</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>152.0684032264852</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>173.626889274475</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>144.5212688564307</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3009,13 +3009,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>209.5675193320705</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249706</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>37.38100496017397</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3319,7 +3319,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3720,16 +3720,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>184.9528897588365</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>206.7472017268226</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3909,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>6.380068175847184</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3960,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>73.88573564095789</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3982,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396202</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>209.5675193320705</v>
       </c>
       <c r="Y46" t="n">
-        <v>71.49367430371645</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>761.2283256125277</v>
+        <v>761.2283256125318</v>
       </c>
       <c r="C2" t="n">
-        <v>761.2283256125277</v>
+        <v>761.2283256125318</v>
       </c>
       <c r="D2" t="n">
-        <v>761.2283256125277</v>
+        <v>761.2283256125318</v>
       </c>
       <c r="E2" t="n">
-        <v>761.2283256125277</v>
+        <v>761.2283256125318</v>
       </c>
       <c r="F2" t="n">
-        <v>350.2424208229201</v>
+        <v>465.5627028353792</v>
       </c>
       <c r="G2" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369987</v>
       </c>
       <c r="H2" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369987</v>
       </c>
       <c r="I2" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369987</v>
       </c>
       <c r="J2" t="n">
-        <v>138.9642385015909</v>
+        <v>138.9642385015915</v>
       </c>
       <c r="K2" t="n">
-        <v>397.0764468060711</v>
+        <v>397.076446806072</v>
       </c>
       <c r="L2" t="n">
-        <v>769.5640925927195</v>
+        <v>769.5640925927211</v>
       </c>
       <c r="M2" t="n">
-        <v>1200.634914689013</v>
+        <v>1200.634914689015</v>
       </c>
       <c r="N2" t="n">
-        <v>1624.048915811682</v>
+        <v>1624.048915811684</v>
       </c>
       <c r="O2" t="n">
-        <v>1978.679112633673</v>
+        <v>1978.679112633676</v>
       </c>
       <c r="P2" t="n">
-        <v>2243.673398054133</v>
+        <v>2243.673398054137</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.451310684989</v>
+        <v>2365.451310684994</v>
       </c>
       <c r="R2" t="n">
-        <v>2292.214167804441</v>
+        <v>2292.214167804445</v>
       </c>
       <c r="S2" t="n">
-        <v>2292.214167804441</v>
+        <v>2292.214167804445</v>
       </c>
       <c r="T2" t="n">
-        <v>2072.31060133079</v>
+        <v>2072.310601330794</v>
       </c>
       <c r="U2" t="n">
-        <v>1818.525626487292</v>
+        <v>1818.525626487296</v>
       </c>
       <c r="V2" t="n">
-        <v>1487.462739143722</v>
+        <v>1487.462739143726</v>
       </c>
       <c r="W2" t="n">
-        <v>1134.694083873607</v>
+        <v>1134.694083873612</v>
       </c>
       <c r="X2" t="n">
-        <v>761.2283256125277</v>
+        <v>761.2283256125318</v>
       </c>
       <c r="Y2" t="n">
-        <v>761.2283256125277</v>
+        <v>761.2283256125318</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>878.806782830967</v>
+        <v>988.8568241913216</v>
       </c>
       <c r="C3" t="n">
-        <v>704.35375354984</v>
+        <v>814.4037949101946</v>
       </c>
       <c r="D3" t="n">
-        <v>555.4193438885887</v>
+        <v>665.4693852489434</v>
       </c>
       <c r="E3" t="n">
-        <v>396.1818888831332</v>
+        <v>506.2319302434878</v>
       </c>
       <c r="F3" t="n">
-        <v>249.6473309100182</v>
+        <v>359.6973722703727</v>
       </c>
       <c r="G3" t="n">
         <v>221.6321658854671</v>
@@ -4406,55 +4406,55 @@
         <v>114.6915088435658</v>
       </c>
       <c r="I3" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369987</v>
       </c>
       <c r="J3" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369987</v>
       </c>
       <c r="K3" t="n">
-        <v>278.0105538592118</v>
+        <v>278.0105538592121</v>
       </c>
       <c r="L3" t="n">
-        <v>649.6216244022446</v>
+        <v>649.6216244022453</v>
       </c>
       <c r="M3" t="n">
-        <v>1135.253437604433</v>
+        <v>1135.253437604435</v>
       </c>
       <c r="N3" t="n">
-        <v>1649.445493246982</v>
+        <v>1501.594138030033</v>
       </c>
       <c r="O3" t="n">
-        <v>2053.415090336854</v>
+        <v>1905.563735119905</v>
       </c>
       <c r="P3" t="n">
-        <v>2360.633238912862</v>
+        <v>2212.781883695914</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.451310684989</v>
+        <v>2365.451310684994</v>
       </c>
       <c r="R3" t="n">
-        <v>2305.608548885991</v>
+        <v>2305.608548885995</v>
       </c>
       <c r="S3" t="n">
-        <v>2144.554785926782</v>
+        <v>2254.604827287137</v>
       </c>
       <c r="T3" t="n">
-        <v>1945.051103087513</v>
+        <v>2055.101144447868</v>
       </c>
       <c r="U3" t="n">
-        <v>1716.871275549723</v>
+        <v>1826.921316910078</v>
       </c>
       <c r="V3" t="n">
-        <v>1716.871275549723</v>
+        <v>1826.921316910078</v>
       </c>
       <c r="W3" t="n">
-        <v>1462.633918821522</v>
+        <v>1572.683960181876</v>
       </c>
       <c r="X3" t="n">
-        <v>1254.782418615989</v>
+        <v>1364.832459976343</v>
       </c>
       <c r="Y3" t="n">
-        <v>1047.022119851035</v>
+        <v>1157.07216121139</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369987</v>
       </c>
       <c r="C4" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369987</v>
       </c>
       <c r="D4" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369987</v>
       </c>
       <c r="E4" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369987</v>
       </c>
       <c r="F4" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369987</v>
       </c>
       <c r="G4" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369987</v>
       </c>
       <c r="H4" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369987</v>
       </c>
       <c r="I4" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369987</v>
       </c>
       <c r="J4" t="n">
-        <v>47.30902621369979</v>
+        <v>47.30902621369987</v>
       </c>
       <c r="K4" t="n">
-        <v>88.805294101816</v>
+        <v>88.80529410181629</v>
       </c>
       <c r="L4" t="n">
-        <v>197.4326649365663</v>
+        <v>197.4326649365668</v>
       </c>
       <c r="M4" t="n">
-        <v>322.3541198950599</v>
+        <v>322.3541198950607</v>
       </c>
       <c r="N4" t="n">
-        <v>449.7398382896744</v>
+        <v>449.7398382896754</v>
       </c>
       <c r="O4" t="n">
-        <v>551.3848716885932</v>
+        <v>551.3848716885944</v>
       </c>
       <c r="P4" t="n">
-        <v>614.8390752546193</v>
+        <v>614.8390752546208</v>
       </c>
       <c r="Q4" t="n">
-        <v>614.8390752546193</v>
+        <v>614.8390752546208</v>
       </c>
       <c r="R4" t="n">
-        <v>614.8390752546193</v>
+        <v>614.8390752546208</v>
       </c>
       <c r="S4" t="n">
-        <v>614.8390752546193</v>
+        <v>614.8390752546208</v>
       </c>
       <c r="T4" t="n">
-        <v>614.8390752546193</v>
+        <v>614.8390752546208</v>
       </c>
       <c r="U4" t="n">
-        <v>614.8390752546193</v>
+        <v>614.8390752546208</v>
       </c>
       <c r="V4" t="n">
-        <v>614.8390752546193</v>
+        <v>614.8390752546208</v>
       </c>
       <c r="W4" t="n">
-        <v>496.0911562552473</v>
+        <v>614.8390752546208</v>
       </c>
       <c r="X4" t="n">
-        <v>268.1016053572299</v>
+        <v>386.8495243566034</v>
       </c>
       <c r="Y4" t="n">
-        <v>47.30902621369979</v>
+        <v>166.0569452130733</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1618.50539369077</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C5" t="n">
-        <v>1249.542876750359</v>
+        <v>1293.521057189058</v>
       </c>
       <c r="D5" t="n">
-        <v>891.2771781436084</v>
+        <v>935.2553585823075</v>
       </c>
       <c r="E5" t="n">
-        <v>891.2771781436084</v>
+        <v>935.2553585823075</v>
       </c>
       <c r="F5" t="n">
         <v>625.3727659270879</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304455</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>1971.274048960885</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1618.50539369077</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X5" t="n">
-        <v>1618.50539369077</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y5" t="n">
-        <v>1618.50539369077</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,7 +4646,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
         <v>266.206002764199</v>
@@ -4676,13 +4676,13 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>601.1385180919704</v>
+        <v>443.7744035713887</v>
       </c>
       <c r="C8" t="n">
-        <v>601.1385180919704</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="D8" t="n">
-        <v>601.1385180919704</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>601.1385180919704</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>594.1930173427669</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2277.810876486087</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>2277.810876486087</v>
       </c>
       <c r="V8" t="n">
-        <v>1717.512263598976</v>
+        <v>1946.747989142516</v>
       </c>
       <c r="W8" t="n">
-        <v>1364.743608328862</v>
+        <v>1593.979333872402</v>
       </c>
       <c r="X8" t="n">
-        <v>991.2778500677821</v>
+        <v>1220.513575611322</v>
       </c>
       <c r="Y8" t="n">
-        <v>601.1385180919704</v>
+        <v>830.3742436355105</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.9088977430002</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y10" t="n">
-        <v>702.55736257324</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="11">
@@ -5023,13 +5023,13 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5044,19 +5044,19 @@
         <v>451.8458144277728</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563072</v>
+        <v>907.9024249011973</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1772.421240554552</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483405</v>
+        <v>2750.97154338438</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542187</v>
+        <v>3297.750360443162</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232731</v>
+        <v>3800.722831322499</v>
       </c>
       <c r="P11" t="n">
         <v>4195.497197679677</v>
@@ -5175,7 +5175,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.56103444839441</v>
+        <v>264.4972173763013</v>
       </c>
       <c r="C13" t="n">
         <v>95.56103444839441</v>
@@ -5226,25 +5226,25 @@
         <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T13" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U13" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>1015.408799357142</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W13" t="n">
-        <v>725.9916293201816</v>
+        <v>894.9278122480885</v>
       </c>
       <c r="X13" t="n">
-        <v>498.0020784221642</v>
+        <v>666.9382613500711</v>
       </c>
       <c r="Y13" t="n">
-        <v>277.2094992786341</v>
+        <v>446.145682206541</v>
       </c>
     </row>
     <row r="14">
@@ -5281,25 +5281,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L14" t="n">
-        <v>1586.925993846823</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M14" t="n">
-        <v>2120.457898518747</v>
+        <v>1770.231306037953</v>
       </c>
       <c r="N14" t="n">
-        <v>2667.23671557753</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O14" t="n">
-        <v>3547.201365906984</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P14" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R14" t="n">
         <v>4778.05172241972</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>812.5159046014975</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C16" t="n">
-        <v>801.6097761177758</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D16" t="n">
-        <v>801.6097761177758</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E16" t="n">
-        <v>653.6966825353827</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H16" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839441</v>
@@ -5463,25 +5463,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1866.513008862232</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1577.410141987875</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>1322.725653781988</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W16" t="n">
-        <v>1033.308483745028</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X16" t="n">
-        <v>1033.308483745028</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y16" t="n">
-        <v>812.5159046014975</v>
+        <v>263.2638710736754</v>
       </c>
     </row>
     <row r="17">
@@ -5497,7 +5497,7 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E17" t="n">
         <v>1261.199888544769</v>
@@ -5518,16 +5518,16 @@
         <v>451.8458144277728</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563072</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483405</v>
+        <v>2215.249704195856</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542187</v>
+        <v>2762.028521254639</v>
       </c>
       <c r="O17" t="n">
         <v>3482.142110232731</v>
@@ -5606,16 +5606,16 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
         <v>1261.199888544769</v>
@@ -5758,13 +5758,13 @@
         <v>1106.569146563072</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483405</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542187</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O20" t="n">
         <v>3482.142110232731</v>
@@ -5788,16 +5788,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5852,7 +5852,7 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T22" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U22" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V22" t="n">
-        <v>1015.408799357142</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W22" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X22" t="n">
-        <v>498.0020784221642</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>171.0738540998319</v>
       </c>
     </row>
     <row r="23">
@@ -5977,13 +5977,13 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
@@ -5995,22 +5995,22 @@
         <v>1106.569146563072</v>
       </c>
       <c r="L23" t="n">
-        <v>1971.087962216427</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2504.619866888351</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N23" t="n">
-        <v>3051.398683947134</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O23" t="n">
-        <v>3554.371154826471</v>
+        <v>3517.878731871642</v>
       </c>
       <c r="P23" t="n">
-        <v>4267.726242273417</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6083,13 +6083,13 @@
         <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>301.022461942538</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>301.022461942538</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>301.022461942538</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>301.022461942538</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>301.022461942538</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>133.319625317257</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S25" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T25" t="n">
-        <v>1559.196154437386</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.093287563029</v>
+        <v>1475.554715057173</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.408799357142</v>
+        <v>1220.870226851286</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201816</v>
+        <v>931.4530568143252</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221642</v>
+        <v>703.4635059163079</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786341</v>
+        <v>482.6709267727778</v>
       </c>
     </row>
     <row r="26">
@@ -6205,22 +6205,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
@@ -6229,22 +6229,22 @@
         <v>451.8458144277728</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563072</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L26" t="n">
-        <v>1971.087962216427</v>
+        <v>1521.866738172571</v>
       </c>
       <c r="M26" t="n">
-        <v>2642.582663047919</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N26" t="n">
-        <v>3189.361480106701</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O26" t="n">
-        <v>3692.333950986038</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
         <v>4653.975400188666</v>
@@ -6253,25 +6253,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6320,10 +6320,10 @@
         <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839442</v>
+        <v>492.7083461157117</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>492.7083461157117</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>492.7083461157117</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>492.7083461157117</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>492.7083461157117</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6411,25 +6411,25 @@
         <v>1956.343466104703</v>
       </c>
       <c r="S28" t="n">
-        <v>1780.96276986786</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T28" t="n">
-        <v>1559.196154437386</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.093287563029</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.408799357142</v>
+        <v>1412.55611102446</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>1123.138940987499</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>895.1493900894816</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>674.3568109459515</v>
       </c>
     </row>
     <row r="29">
@@ -6454,10 +6454,10 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6466,16 +6466,16 @@
         <v>451.8458144277728</v>
       </c>
       <c r="K29" t="n">
-        <v>1070.832524924162</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L29" t="n">
-        <v>1521.866738172571</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2055.398642844495</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N29" t="n">
-        <v>2602.177459903277</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O29" t="n">
         <v>3482.142110232732</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.2746837213646</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>561.2936040684043</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>411.1769646560685</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
         <v>95.56103444839442</v>
@@ -6648,25 +6648,25 @@
         <v>1956.343466104703</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T31" t="n">
-        <v>1734.576850674229</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1445.473983799873</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>1445.473983799873</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W31" t="n">
-        <v>1156.056813762912</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X31" t="n">
-        <v>928.0672628648947</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>707.2746837213646</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6679,22 +6679,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6703,49 +6703,49 @@
         <v>451.8458144277728</v>
       </c>
       <c r="K32" t="n">
-        <v>1070.832524924162</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L32" t="n">
-        <v>1521.866738172571</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2055.398642844495</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N32" t="n">
-        <v>2602.177459903277</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6797,7 +6797,7 @@
         <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>301.022461942538</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>301.022461942538</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
         <v>95.56103444839442</v>
@@ -6888,22 +6888,22 @@
         <v>1764.657581931529</v>
       </c>
       <c r="T34" t="n">
-        <v>1764.657581931529</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1475.554715057173</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>1220.870226851286</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W34" t="n">
-        <v>931.4530568143252</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X34" t="n">
-        <v>703.4635059163079</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y34" t="n">
-        <v>482.6709267727778</v>
+        <v>260.9043113423041</v>
       </c>
     </row>
     <row r="35">
@@ -6916,73 +6916,73 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>416.1091927888619</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K35" t="n">
-        <v>1070.832524924161</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L35" t="n">
-        <v>1521.86673817257</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2055.398642844494</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N35" t="n">
-        <v>2602.177459903276</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -7013,7 +7013,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390117</v>
@@ -7034,10 +7034,10 @@
         <v>2125.961311426849</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
         <v>344.6708498442063</v>
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
         <v>451.8458144277728</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563072</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L38" t="n">
-        <v>1732.058578925876</v>
+        <v>1521.866738172571</v>
       </c>
       <c r="M38" t="n">
-        <v>2265.5904835978</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N38" t="n">
-        <v>2812.369300656582</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O38" t="n">
-        <v>3692.333950986037</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4405.689038432983</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
         <v>189.2383039390117</v>
@@ -7271,7 +7271,7 @@
         <v>2125.961311426849</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>559.5976972681534</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C40" t="n">
-        <v>559.5976972681534</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D40" t="n">
-        <v>409.4810578558177</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E40" t="n">
-        <v>409.4810578558177</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F40" t="n">
-        <v>409.4810578558177</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G40" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
         <v>344.6708498442063</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S40" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T40" t="n">
-        <v>1734.576850674229</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U40" t="n">
-        <v>1445.473983799873</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V40" t="n">
-        <v>1258.652883033371</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="W40" t="n">
-        <v>969.2357129964105</v>
+        <v>874.5404723472661</v>
       </c>
       <c r="X40" t="n">
-        <v>741.2461620983931</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y40" t="n">
-        <v>741.2461620983931</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="41">
@@ -7408,34 +7408,34 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>416.1091927888619</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K41" t="n">
-        <v>1070.832524924161</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L41" t="n">
-        <v>1521.86673817257</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2055.398642844494</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N41" t="n">
-        <v>2602.177459903276</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
         <v>4667.761053946815</v>
@@ -7487,31 +7487,31 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
         <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>270.9417306852379</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C43" t="n">
-        <v>102.005547757331</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D43" t="n">
-        <v>102.005547757331</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E43" t="n">
-        <v>102.005547757331</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
         <v>344.6708498442063</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S43" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T43" t="n">
-        <v>1734.576850674229</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U43" t="n">
-        <v>1445.473983799873</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V43" t="n">
-        <v>1190.789495593986</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W43" t="n">
-        <v>901.3723255570251</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="X43" t="n">
-        <v>673.3827746590077</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="Y43" t="n">
-        <v>452.5901955154776</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="44">
@@ -7633,46 +7633,46 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551621</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
         <v>451.8458144277728</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563072</v>
+        <v>1002.806306216376</v>
       </c>
       <c r="L44" t="n">
-        <v>1971.087962216427</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M44" t="n">
-        <v>2504.619866888351</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N44" t="n">
-        <v>3051.398683947134</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O44" t="n">
-        <v>3554.371154826471</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4267.726242273417</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
         <v>4667.761053946815</v>
@@ -7724,7 +7724,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
         <v>189.2383039390117</v>
@@ -7739,7 +7739,7 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C46" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D46" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E46" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F46" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
         <v>344.6708498442063</v>
@@ -7848,10 +7848,10 @@
         <v>709.6864413838516</v>
       </c>
       <c r="X46" t="n">
-        <v>481.6968904858343</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y46" t="n">
-        <v>409.4810578558177</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>64.58008902262989</v>
+        <v>64.58008902262972</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>329.9975710941084</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>60.73248448640258</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>145.029416914201</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8549,7 +8549,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>123.4719563470485</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476844</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8929,16 +8929,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>29.61882225792044</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>288.0478149561022</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9166,19 +9166,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476844</v>
+        <v>219.334462726016</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476844</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9652,16 +9652,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>285.7011105564223</v>
       </c>
       <c r="Q23" t="n">
-        <v>205.0727796301213</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,25 +9877,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>288.047814956104</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>139.356359757139</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10114,7 +10114,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>288.047814956104</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10351,13 +10351,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>288.047814956104</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>29.61882225792215</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>132.9990175570123</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,10 +10825,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>288.047814956104</v>
       </c>
       <c r="L38" t="n">
-        <v>176.2173930448433</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>132.9990175570123</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,13 +11299,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>219.3344627260167</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11317,10 +11317,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>205.0727796301204</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>105.0742887270141</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.321109825642</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>156.4497538997434</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>91.26811680410414</v>
       </c>
     </row>
     <row r="17">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>105.0742887270141</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>16.14213605696685</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>107.3740099541468</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983812</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>105.0742887270141</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>13.95740503254302</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>16.14213605696685</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>22.72555224219718</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24888,7 +24888,7 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>16.14213605696665</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>16.14213605696668</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>111.2344680580384</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983812</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>67.18475356499147</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>18.96245366221453</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25797,10 +25797,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>139.0409798470841</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>212.6372626956331</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983812</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>16.14213605696665</v>
       </c>
       <c r="Y46" t="n">
-        <v>147.0909790483784</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>682953.8737867379</v>
+        <v>682953.873786738</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>682953.873786738</v>
+        <v>682953.8737867379</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>682953.873786738</v>
+        <v>682953.8737867379</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>682953.873786738</v>
+        <v>682953.8737867379</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244614</v>
+        <v>759463.6371244615</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="E2" t="n">
-        <v>734601.3057409193</v>
+        <v>734601.3057409194</v>
       </c>
       <c r="F2" t="n">
         <v>734601.305740919</v>
@@ -26331,31 +26331,31 @@
         <v>734601.3057409192</v>
       </c>
       <c r="H2" t="n">
-        <v>734601.3057409192</v>
+        <v>734601.3057409193</v>
       </c>
       <c r="I2" t="n">
         <v>734601.3057409193</v>
       </c>
       <c r="J2" t="n">
-        <v>734601.3057409191</v>
+        <v>734601.3057409194</v>
       </c>
       <c r="K2" t="n">
-        <v>734601.3057409191</v>
+        <v>734601.3057409194</v>
       </c>
       <c r="L2" t="n">
-        <v>734601.3057409191</v>
+        <v>734601.3057409192</v>
       </c>
       <c r="M2" t="n">
-        <v>734601.3057409192</v>
+        <v>734601.3057409193</v>
       </c>
       <c r="N2" t="n">
-        <v>734601.3057409193</v>
+        <v>734601.3057409194</v>
       </c>
       <c r="O2" t="n">
         <v>734601.3057409193</v>
       </c>
       <c r="P2" t="n">
-        <v>734601.3057409193</v>
+        <v>734601.3057409194</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493391.6844106477</v>
+        <v>493391.6844106489</v>
       </c>
       <c r="C3" t="n">
-        <v>91792.63957446942</v>
+        <v>91792.63957446824</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154726.5356832159</v>
+        <v>154726.5356832161</v>
       </c>
       <c r="K3" t="n">
-        <v>21342.09858220087</v>
+        <v>21342.0985822006</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235704.9591760458</v>
+        <v>235704.9591760454</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
@@ -26429,13 +26429,13 @@
         <v>28561.83935289576</v>
       </c>
       <c r="F4" t="n">
-        <v>28561.83935289574</v>
+        <v>28561.83935289573</v>
       </c>
       <c r="G4" t="n">
-        <v>28561.83935289577</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="H4" t="n">
-        <v>28561.83935289577</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="I4" t="n">
         <v>28561.83935289577</v>
@@ -26444,22 +26444,22 @@
         <v>28561.83935289576</v>
       </c>
       <c r="K4" t="n">
+        <v>28561.83935289577</v>
+      </c>
+      <c r="L4" t="n">
+        <v>28561.83935289577</v>
+      </c>
+      <c r="M4" t="n">
+        <v>28561.83935289578</v>
+      </c>
+      <c r="N4" t="n">
         <v>28561.83935289576</v>
       </c>
-      <c r="L4" t="n">
-        <v>28561.83935289576</v>
-      </c>
-      <c r="M4" t="n">
-        <v>28561.83935289575</v>
-      </c>
-      <c r="N4" t="n">
-        <v>28561.83935289575</v>
-      </c>
       <c r="O4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289573</v>
       </c>
       <c r="P4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289572</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76261.1061314012</v>
+        <v>76261.10613140129</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-45894.11259363327</v>
+        <v>-45894.11259363414</v>
       </c>
       <c r="C6" t="n">
-        <v>374889.50402355</v>
+        <v>374889.5040235514</v>
       </c>
       <c r="D6" t="n">
         <v>466682.1435980197</v>
       </c>
       <c r="E6" t="n">
-        <v>-118393.4207613545</v>
+        <v>-117788.6613493222</v>
       </c>
       <c r="F6" t="n">
-        <v>608983.9932320517</v>
+        <v>609588.7526440838</v>
       </c>
       <c r="G6" t="n">
-        <v>608983.993232052</v>
+        <v>609588.752644084</v>
       </c>
       <c r="H6" t="n">
-        <v>608983.993232052</v>
+        <v>609588.7526440842</v>
       </c>
       <c r="I6" t="n">
-        <v>608983.9932320521</v>
+        <v>609588.7526440842</v>
       </c>
       <c r="J6" t="n">
-        <v>454257.457548836</v>
+        <v>454862.2169608682</v>
       </c>
       <c r="K6" t="n">
-        <v>587641.894649851</v>
+        <v>588246.6540618837</v>
       </c>
       <c r="L6" t="n">
-        <v>608983.9932320518</v>
+        <v>609588.752644084</v>
       </c>
       <c r="M6" t="n">
-        <v>479341.6783931072</v>
+        <v>479946.4378051395</v>
       </c>
       <c r="N6" t="n">
-        <v>608983.9932320521</v>
+        <v>609588.7526440843</v>
       </c>
       <c r="O6" t="n">
-        <v>608983.9932320521</v>
+        <v>609588.7526440842</v>
       </c>
       <c r="P6" t="n">
-        <v>608983.9932320521</v>
+        <v>609588.7526440843</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435495</v>
+        <v>306.3599178435504</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712474</v>
+        <v>591.3628276712484</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435495</v>
+        <v>306.3599178435504</v>
       </c>
       <c r="C3" t="n">
-        <v>71.38374637353718</v>
+        <v>71.38374637353627</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712474</v>
+        <v>591.3628276712484</v>
       </c>
       <c r="C4" t="n">
-        <v>82.92444508330823</v>
+        <v>82.92444508330716</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712474</v>
+        <v>591.3628276712484</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330823</v>
+        <v>82.92444508330716</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503742</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712474</v>
+        <v>591.3628276712484</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330823</v>
+        <v>82.92444508330716</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>114.1670791923304</v>
       </c>
       <c r="G2" t="n">
-        <v>114.1670791923344</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>326.8617025836455</v>
       </c>
       <c r="I2" t="n">
-        <v>162.9947207958795</v>
+        <v>162.9947207958794</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>180.9550379164569</v>
+        <v>180.9550379164568</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27472,7 +27472,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>108.949540946751</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>108.9495409467467</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>62.2715403725576</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27557,10 +27557,10 @@
         <v>157.3153692344725</v>
       </c>
       <c r="I4" t="n">
-        <v>138.8367272514147</v>
+        <v>138.8367272514146</v>
       </c>
       <c r="J4" t="n">
-        <v>54.3008017384878</v>
+        <v>54.30080173848768</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.90169565731842</v>
+        <v>39.90169565731828</v>
       </c>
       <c r="R4" t="n">
-        <v>152.4531265631663</v>
+        <v>152.4531265631662</v>
       </c>
       <c r="S4" t="n">
-        <v>214.3888609467086</v>
+        <v>214.3888609467085</v>
       </c>
       <c r="T4" t="n">
         <v>225.5851113727656</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>168.9625585272127</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>143.6306776473562</v>
+        <v>100.092279013044</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27672,13 +27672,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060688</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>120.1051426060689</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>30.86795109847782</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>30.19760335462684</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28016,10 +28016,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>153.0517176144024</v>
       </c>
       <c r="Y10" t="n">
-        <v>193.2687479352325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.23159765967256</v>
+        <v>1.231597659672563</v>
       </c>
       <c r="H2" t="n">
-        <v>12.61309953212161</v>
+        <v>12.61309953212164</v>
       </c>
       <c r="I2" t="n">
-        <v>47.4811687745264</v>
+        <v>47.48116877452654</v>
       </c>
       <c r="J2" t="n">
-        <v>104.530311867634</v>
+        <v>104.5303118676343</v>
       </c>
       <c r="K2" t="n">
-        <v>156.6638408015735</v>
+        <v>156.663840801574</v>
       </c>
       <c r="L2" t="n">
-        <v>194.3553476787776</v>
+        <v>194.3553476787782</v>
       </c>
       <c r="M2" t="n">
-        <v>216.2577725589795</v>
+        <v>216.2577725589802</v>
       </c>
       <c r="N2" t="n">
-        <v>219.7570494095242</v>
+        <v>219.7570494095248</v>
       </c>
       <c r="O2" t="n">
-        <v>207.5103501811552</v>
+        <v>207.5103501811558</v>
       </c>
       <c r="P2" t="n">
-        <v>177.1052829579888</v>
+        <v>177.1052829579893</v>
       </c>
       <c r="Q2" t="n">
-        <v>132.9986917709652</v>
+        <v>132.9986917709656</v>
       </c>
       <c r="R2" t="n">
-        <v>77.3643464894065</v>
+        <v>77.36434648940673</v>
       </c>
       <c r="S2" t="n">
-        <v>28.06503166978848</v>
+        <v>28.06503166978856</v>
       </c>
       <c r="T2" t="n">
-        <v>5.391318755216632</v>
+        <v>5.391318755216648</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09852781277380475</v>
+        <v>0.09852781277380505</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6589628421540498</v>
+        <v>0.6589628421540518</v>
       </c>
       <c r="H3" t="n">
-        <v>6.364193765014114</v>
+        <v>6.364193765014132</v>
       </c>
       <c r="I3" t="n">
-        <v>22.68797504784777</v>
+        <v>22.68797504784784</v>
       </c>
       <c r="J3" t="n">
-        <v>62.25753764403679</v>
+        <v>62.25753764403698</v>
       </c>
       <c r="K3" t="n">
-        <v>106.4080480683581</v>
+        <v>106.4080480683584</v>
       </c>
       <c r="L3" t="n">
-        <v>143.0787521966502</v>
+        <v>143.0787521966506</v>
       </c>
       <c r="M3" t="n">
-        <v>166.9661552247344</v>
+        <v>166.9661552247349</v>
       </c>
       <c r="N3" t="n">
-        <v>171.3852525302325</v>
+        <v>171.385252530233</v>
       </c>
       <c r="O3" t="n">
-        <v>156.7840232382927</v>
+        <v>156.7840232382932</v>
       </c>
       <c r="P3" t="n">
-        <v>125.8330009723817</v>
+        <v>125.8330009723821</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.11602876338362</v>
+        <v>84.11602876338388</v>
       </c>
       <c r="R3" t="n">
-        <v>40.91349997163479</v>
+        <v>40.91349997163491</v>
       </c>
       <c r="S3" t="n">
-        <v>12.23994577422105</v>
+        <v>12.23994577422108</v>
       </c>
       <c r="T3" t="n">
-        <v>2.656082683945489</v>
+        <v>2.656082683945497</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04335281856276645</v>
+        <v>0.04335281856276658</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.552452310865417</v>
+        <v>0.5524523108654186</v>
       </c>
       <c r="H4" t="n">
-        <v>4.911803272967075</v>
+        <v>4.911803272967089</v>
       </c>
       <c r="I4" t="n">
-        <v>16.61374767584364</v>
+        <v>16.61374767584369</v>
       </c>
       <c r="J4" t="n">
-        <v>39.05837837818498</v>
+        <v>39.0583783781851</v>
       </c>
       <c r="K4" t="n">
-        <v>64.18491393509116</v>
+        <v>64.18491393509134</v>
       </c>
       <c r="L4" t="n">
-        <v>82.13459174448209</v>
+        <v>82.13459174448235</v>
       </c>
       <c r="M4" t="n">
-        <v>86.59941087502168</v>
+        <v>86.59941087502193</v>
       </c>
       <c r="N4" t="n">
-        <v>84.54027044361428</v>
+        <v>84.54027044361453</v>
       </c>
       <c r="O4" t="n">
-        <v>78.08662299395915</v>
+        <v>78.08662299395938</v>
       </c>
       <c r="P4" t="n">
-        <v>66.81659585230459</v>
+        <v>66.81659585230479</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.26034759437596</v>
+        <v>46.26034759437611</v>
       </c>
       <c r="R4" t="n">
-        <v>24.8402648140032</v>
+        <v>24.84026481400327</v>
       </c>
       <c r="S4" t="n">
-        <v>9.627737090263672</v>
+        <v>9.627737090263702</v>
       </c>
       <c r="T4" t="n">
-        <v>2.360478055515872</v>
+        <v>2.360478055515879</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03013376241084096</v>
+        <v>0.03013376241084105</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -32326,7 +32326,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O18" t="n">
         <v>557.7086478970249</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32803,7 +32803,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970255</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
         <v>447.6103584002926</v>
@@ -33040,13 +33040,13 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970255</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
         <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33517,10 +33517,10 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33754,7 +33754,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987486</v>
@@ -33991,10 +33991,10 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34213,7 +34213,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138795</v>
@@ -34459,10 +34459,10 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970255</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
         <v>447.6103584002926</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.58102251302149</v>
+        <v>92.58102251302181</v>
       </c>
       <c r="K2" t="n">
-        <v>260.7194023277577</v>
+        <v>260.7194023277582</v>
       </c>
       <c r="L2" t="n">
-        <v>376.2501472592409</v>
+        <v>376.2501472592414</v>
       </c>
       <c r="M2" t="n">
-        <v>435.4250728245393</v>
+        <v>435.4250728245399</v>
       </c>
       <c r="N2" t="n">
-        <v>427.6909102249174</v>
+        <v>427.6909102249181</v>
       </c>
       <c r="O2" t="n">
-        <v>358.2123200222138</v>
+        <v>358.2123200222144</v>
       </c>
       <c r="P2" t="n">
-        <v>267.6709953742019</v>
+        <v>267.6709953742024</v>
       </c>
       <c r="Q2" t="n">
-        <v>123.0079925564204</v>
+        <v>123.0079925564208</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>233.0318461065777</v>
+        <v>233.031846106578</v>
       </c>
       <c r="L3" t="n">
-        <v>375.3647177202351</v>
+        <v>375.3647177202356</v>
       </c>
       <c r="M3" t="n">
-        <v>490.537185052716</v>
+        <v>490.5371850527165</v>
       </c>
       <c r="N3" t="n">
-        <v>519.3859147904527</v>
+        <v>370.0411115410081</v>
       </c>
       <c r="O3" t="n">
-        <v>408.0500980705778</v>
+        <v>408.0500980705783</v>
       </c>
       <c r="P3" t="n">
-        <v>310.3213621979886</v>
+        <v>310.3213621979889</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.866739163764688</v>
+        <v>154.2115424132115</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.91542210920831</v>
+        <v>41.91542210920849</v>
       </c>
       <c r="L4" t="n">
-        <v>109.7246170047982</v>
+        <v>109.7246170047985</v>
       </c>
       <c r="M4" t="n">
-        <v>126.1832878368623</v>
+        <v>126.1832878368625</v>
       </c>
       <c r="N4" t="n">
-        <v>128.6724428228429</v>
+        <v>128.6724428228431</v>
       </c>
       <c r="O4" t="n">
-        <v>102.6717509079988</v>
+        <v>102.6717509079991</v>
       </c>
       <c r="P4" t="n">
-        <v>64.09515511719808</v>
+        <v>64.09515511719827</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35269,7 +35269,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35412,22 +35412,22 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265651</v>
+        <v>460.6632429024489</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359034</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
         <v>463.1092954636241</v>
@@ -35649,16 +35649,16 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>485.2089366502526</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>840.3496503690137</v>
       </c>
       <c r="O14" t="n">
         <v>888.8531821509645</v>
@@ -35670,7 +35670,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35886,19 +35886,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359034</v>
+        <v>727.387463614235</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908542</v>
@@ -35974,7 +35974,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O18" t="n">
         <v>415.1124034525805</v>
@@ -36126,7 +36126,7 @@
         <v>661.3366991265651</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>800.2926980400157</v>
       </c>
       <c r="M20" t="n">
         <v>538.9211158302265</v>
@@ -36135,7 +36135,7 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359034</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908542</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36363,7 +36363,7 @@
         <v>661.3366991265651</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302265</v>
@@ -36372,16 +36372,16 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908542</v>
+        <v>684.4630967757939</v>
       </c>
       <c r="Q23" t="n">
-        <v>455.8670844338408</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36451,7 +36451,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
@@ -36597,25 +36597,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265651</v>
+        <v>625.2391015115044</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>678.2774755873655</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36688,13 +36688,13 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>625.2391015115044</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923319</v>
@@ -36846,7 +36846,7 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509644</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908542</v>
@@ -37071,13 +37071,13 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>625.2391015115044</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>568.5399380881487</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129113</v>
@@ -37092,7 +37092,7 @@
         <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37165,10 +37165,10 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>323.7860185257248</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
         <v>661.3366991265651</v>
@@ -37320,7 +37320,7 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509644</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908542</v>
@@ -37402,7 +37402,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127271</v>
@@ -37545,10 +37545,10 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265651</v>
+        <v>625.2391015115044</v>
       </c>
       <c r="L38" t="n">
-        <v>631.8075074371752</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302265</v>
@@ -37563,7 +37563,7 @@
         <v>720.5606943908542</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37639,10 +37639,10 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>323.7860185257248</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
         <v>661.3366991265651</v>
@@ -37794,7 +37794,7 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509644</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908542</v>
@@ -37861,7 +37861,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340053</v>
@@ -38019,13 +38019,13 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265651</v>
+        <v>556.5257492814171</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129113</v>
@@ -38037,10 +38037,10 @@
         <v>720.5606943908542</v>
       </c>
       <c r="Q44" t="n">
-        <v>455.8670844338399</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38107,10 +38107,10 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
